--- a/src/main/resources/template/excel/export/PurchaseGoodsBarCodeTemple.xlsx
+++ b/src/main/resources/template/excel/export/PurchaseGoodsBarCodeTemple.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="9930"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>条码</t>
   </si>
@@ -48,12 +43,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +80,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +233,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -124,58 +447,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -189,14 +796,14 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name=" 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010275" y="228600"/>
+          <a:off x="5086350" y="228600"/>
           <a:ext cx="3011170" cy="1256665"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -376,13 +983,20 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>正式使用时，需删掉本说明和表中例子，栏位说明：                  </a:t>
+            <a:t>正式使用时，需删掉本说明和表中例子。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -402,18 +1016,25 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>条码：</a:t>
+            <a:t>栏位说明：</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>必填，未填导入失败。</a:t>
+            <a:t>                  </a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -433,7 +1054,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>数量：</a:t>
+            <a:t>条码：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -443,28 +1064,15 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认为</a:t>
+            <a:t>必填，未填导入失败。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>。</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -484,7 +1092,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>单价：</a:t>
+            <a:t>数量：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -494,7 +1102,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认系统单价。赠品单价默认为</a:t>
+            <a:t>未填时，导入后默认为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -506,6 +1114,23 @@
             </a:rPr>
             <a:t>0</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -525,7 +1150,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>金额：</a:t>
+            <a:t>单价：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -535,7 +1160,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>未填时，导入后默认为金额</a:t>
+            <a:t>未填时，导入后默认系统单价。赠品单价默认为</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -545,38 +1170,15 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>=</a:t>
+            <a:t>0</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>数量</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
-            </a:rPr>
-            <a:t>单价。</a:t>
-          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" eaLnBrk="1" fontAlgn="auto" hangingPunct="1">
@@ -608,6 +1210,13 @@
             </a:rPr>
             <a:t>下拉选择【是、否】。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -902,22 +1511,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
-    <col min="2" max="3" width="12.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -931,153 +1541,153 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>10</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" ht="13.5" customHeight="1" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="13.5" customHeight="1"/>
+    <row r="6" ht="13.5" customHeight="1"/>
+    <row r="7" ht="13.5" customHeight="1"/>
+    <row r="8" ht="13.5" customHeight="1"/>
+    <row r="9" ht="13.5" customHeight="1"/>
+    <row r="10" ht="13.5" customHeight="1"/>
+    <row r="11" ht="13.5" customHeight="1"/>
+    <row r="12" ht="13.5" customHeight="1"/>
+    <row r="13" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="15" ht="13.5" customHeight="1"/>
+    <row r="16" ht="13.5" customHeight="1"/>
+    <row r="17" ht="13.5" customHeight="1"/>
+    <row r="18" ht="13.5" customHeight="1"/>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
+    <row r="31" ht="13.5" customHeight="1"/>
+    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"否,是"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>